--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B2" t="n">
         <v>86</v>
       </c>
-      <c r="B2" t="n">
-        <v>84</v>
-      </c>
       <c r="C2" t="n">
-        <v>29811</v>
+        <v>27315</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
-        <v>22012</v>
+        <v>29811</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
@@ -485,44 +485,44 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B4" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C4" t="n">
-        <v>22360</v>
+        <v>26142</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>80.55555555555556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
-        <v>27315</v>
+        <v>29803</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>80.10438466642847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B6" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C6" t="n">
-        <v>24551</v>
+        <v>32311</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>77.66695652173914</v>
       </c>
     </row>
   </sheetData>
